--- a/AUDATA_CASO_PRUEBA_ITTS_MP3_STRING_A_BYTES.xlsx
+++ b/AUDATA_CASO_PRUEBA_ITTS_MP3_STRING_A_BYTES.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Documentacion-proyectoAdmin-master\Pruebas\DisenhoCasoPrueba\CP-Audata-Text-TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="12015" windowHeight="6780" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="16605" windowHeight="7395" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>Reglas de confidencialidad</t>
   </si>
@@ -227,18 +227,9 @@
     <t>EC 1.1 Convierte correctamente a un conjunto de bytes codificados en MP3 cuyo contenido es voz en español.</t>
   </si>
   <si>
-    <t>Dado un String cuyo contenido son palabras en inglés se realiza la codificación generando un arreglo de bytes en formato MP3.</t>
-  </si>
-  <si>
     <t>Dado un String cuyo contenido son palabras en español se realiza la codificación generando un arreglo de bytes en formato MP3.</t>
   </si>
   <si>
-    <t>EC 1.2 Convierte correctamente a un conjunto de bytes codificados en MP3 cuyo contenido es voz en inglés.</t>
-  </si>
-  <si>
-    <t>EC 1.3 No convierte correctamente a formato MP3 porque se envió caracteres no legibles.</t>
-  </si>
-  <si>
     <t>Dado un String cuyo contenido caracteres impronunciables no se realiza una codificación a MP3 generando un arreglo de bytes basura(distorsión).</t>
   </si>
   <si>
@@ -251,84 +242,12 @@
     <t>Retorna un arreglo de bytes con basura(distorsión)</t>
   </si>
   <si>
-    <t>12345 Hola</t>
-  </si>
-  <si>
-    <t>12345 Hello</t>
-  </si>
-  <si>
-    <t>Hooooooooooolaaaaaa</t>
-  </si>
-  <si>
-    <t>EsteTextoNoTieneEspacios</t>
-  </si>
-  <si>
-    <t>ThisTextDon'tHaveAnySpace</t>
-  </si>
-  <si>
-    <t>Dado un String cuyo contenido son palabras en español con números se realiza la codificación generando un arreglo de bytes en formato MP3.</t>
-  </si>
-  <si>
-    <t>Dado un String cuyo contenido son palabras en inglés con números se realiza la codificación generando un arreglo de bytes en formato MP3.</t>
-  </si>
-  <si>
-    <t>EC 1.4 Convierte correctamente a un conjunto de bytes codificados en MP3 cuyo contenido es voz en español y números.</t>
-  </si>
-  <si>
-    <t>EC 1.5 Convierte correctamente a un conjunto de bytes codificados en MP3 cuyo contenido es voz en inglés y números.</t>
-  </si>
-  <si>
     <t>Retorna un mensaje de alerta al usuario diciéndole que no hay datos para reproducir.</t>
   </si>
   <si>
-    <t>EC 1.6 Convierte correctamente a un conjunto de bytes codificados en MP3 cuyo contenido es una palabra en español donde se repiten las vocales.</t>
-  </si>
-  <si>
-    <t>Dado un String cuyo contenido son palabras en español donde se repiten las vocales se realiza la codificación generando un arreglo de bytes en formato MP3.</t>
-  </si>
-  <si>
-    <t>EC 1.7 Convierte correctamente a un conjunto de bytes codificados en MP3 cuyo contenido es voz en inglé donde se repiten las vocales.</t>
-  </si>
-  <si>
-    <t>Dado un String cuyo contenido son palabras en español donde se repiten las vocales y  se realiza la codificación generando un arreglo de bytes en formato MP3.</t>
-  </si>
-  <si>
-    <t>EC 1.9 Convierte correctamente a un conjunto de bytes codificados en MP3 cuyo contenido es voz en inglés donde no hay detenimiento entre las palabras.</t>
-  </si>
-  <si>
-    <t>EC 1.8 Convierte correctamente a un conjunto de bytes codificados en MP3 cuyo contenido es voz español donde no hay detenimiento entre las palabras.</t>
-  </si>
-  <si>
-    <t>Dado un String cuyo contenido son palabras en inglés donde no no hay espacios entre éstas y se realiza la codificación generando un arreglo de bytes en formato MP3.</t>
-  </si>
-  <si>
-    <t>Dado un String cuyo contenido son palabras en español donde no hay espacios éstas y se realiza la codificación generando un arreglo de bytes en formato MP3.</t>
-  </si>
-  <si>
     <t>Se da un String donde no hay nada de contenido.</t>
   </si>
   <si>
-    <t>Hhhhellllllo</t>
-  </si>
-  <si>
-    <t>Heeeeelloooooo</t>
-  </si>
-  <si>
-    <t>EC 1.10 Convierte correctamente a un conjunto de bytes codificados en MP3 cuyo contenido es una palabra en español donde se repiten las consonantes.</t>
-  </si>
-  <si>
-    <t>EC 1.11Convierte correctamente a un conjunto de bytes codificados en MP3 cuyo contenido es voz en inglé donde se repiten las consonantes.</t>
-  </si>
-  <si>
-    <t>Dado un String cuyo contenido son palabras en inglés donde se repiten las vocales se realiza la codificación generando un arreglo de bytes en formato MP3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC 1.12 Se ingresa un valor Nulo </t>
-  </si>
-  <si>
-    <t>Dado un String cuyo contenido son palabras en inglés donde se repiten las consonantes y se realiza la codificación generando un arreglo de bytes en formato MP3.</t>
-  </si>
-  <si>
     <t>„3ëš@ï Este texto está bonito.</t>
   </si>
   <si>
@@ -341,15 +260,9 @@
     <t>No.</t>
   </si>
   <si>
-    <t>String Text</t>
-  </si>
-  <si>
     <t>Debe contener caracteres alfa numéricos legibles tanto en español o inglés.</t>
   </si>
   <si>
-    <t>Texto</t>
-  </si>
-  <si>
     <t xml:space="preserve">Paúl Mendoza del Carpio </t>
   </si>
   <si>
@@ -366,6 +279,18 @@
   </si>
   <si>
     <t>Título: Diseño de Caso de Prueba para el requerimiento funcional Conversión de una cadena de texto a un  array de bytes codificable por MP3</t>
+  </si>
+  <si>
+    <t>EC 1.2 No convierte correctamente a formato MP3 porque se envió caracteres no legibles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC 1.3 Se ingresa un valor Nulo </t>
+  </si>
+  <si>
+    <t>EC 1.4 ingresa un un conjunto de valores legibles y no legibles</t>
+  </si>
+  <si>
+    <t>Text</t>
   </si>
 </sst>
 </file>
@@ -667,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -727,6 +652,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -795,6 +723,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1344,13 +1275,13 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
+      <c r="F14" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -1358,11 +1289,11 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
@@ -1370,11 +1301,11 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
@@ -1382,11 +1313,11 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
@@ -1404,11 +1335,11 @@
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1430,25 +1361,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
+      <c r="B21" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
+      <c r="B22" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1470,85 +1401,85 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="32" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32" t="s">
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27" t="s">
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="41"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="37" t="s">
+      <c r="C27" s="38"/>
+      <c r="D27" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
@@ -1588,12 +1519,12 @@
     </row>
     <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1616,11 +1547,11 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1642,11 +1573,11 @@
     </row>
     <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1680,15 +1611,15 @@
       <c r="E38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="F38" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32" t="s">
+      <c r="G38" s="33"/>
+      <c r="H38" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
     </row>
     <row r="39" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
@@ -1703,15 +1634,15 @@
       <c r="E39" s="20">
         <v>43558</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="28"/>
-      <c r="H39" s="34" t="s">
+      <c r="G39" s="29"/>
+      <c r="H39" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="I39" s="35"/>
-      <c r="J39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="37"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
@@ -1719,11 +1650,11 @@
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
@@ -1778,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B17"/>
+    <sheetView topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1813,10 +1744,10 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1829,10 +1760,10 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1925,19 +1856,19 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="46" t="s">
+      <c r="C10" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="47" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="2"/>
@@ -1947,11 +1878,11 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1959,11 +1890,11 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1987,21 +1918,13 @@
     </row>
     <row r="14" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="46" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>38</v>
-      </c>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -2010,11 +1933,11 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2022,11 +1945,11 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2036,13 +1959,13 @@
     </row>
     <row r="17" spans="1:12" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
+        <v>44</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2052,19 +1975,19 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="46" t="s">
+      <c r="B18" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="47" t="s">
         <v>38</v>
       </c>
       <c r="G18" s="2"/>
@@ -2076,11 +1999,11 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2090,11 +2013,11 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -2104,13 +2027,13 @@
     </row>
     <row r="21" spans="1:12" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
+        <v>43</v>
+      </c>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -2120,19 +2043,19 @@
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="46" t="s">
+      <c r="B22" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="46" t="s">
+      <c r="E22" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="47" t="s">
         <v>38</v>
       </c>
       <c r="G22" s="2"/>
@@ -2144,11 +2067,11 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2158,11 +2081,11 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -2172,13 +2095,11 @@
     </row>
     <row r="25" spans="1:12" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -2186,21 +2107,21 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="46" t="s">
+      <c r="B26" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="46" t="s">
+      <c r="F26" s="47" t="s">
         <v>38</v>
       </c>
       <c r="G26" s="1"/>
@@ -2212,11 +2133,11 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2226,11 +2147,11 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2240,13 +2161,13 @@
     </row>
     <row r="29" spans="1:12" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
+        <v>48</v>
+      </c>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2256,21 +2177,11 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>38</v>
-      </c>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2280,11 +2191,11 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2294,11 +2205,11 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2306,15 +2217,13 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2324,21 +2233,11 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" s="46" t="s">
-        <v>38</v>
-      </c>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2348,11 +2247,11 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2362,11 +2261,11 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2374,15 +2273,13 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2392,21 +2289,11 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="46" t="s">
-        <v>38</v>
-      </c>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2416,11 +2303,11 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2430,11 +2317,11 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2442,15 +2329,13 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2460,21 +2345,11 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="46" t="s">
-        <v>38</v>
-      </c>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2484,11 +2359,11 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2498,11 +2373,11 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2510,15 +2385,13 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2527,191 +2400,73 @@
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F46" s="46" t="s">
-        <v>38</v>
-      </c>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
     </row>
     <row r="48" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-    </row>
-    <row r="49" spans="2:6" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+    </row>
+    <row r="49" spans="2:6" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" s="46" t="s">
-        <v>38</v>
-      </c>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-    </row>
-    <row r="53" spans="2:6" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="F54" s="46" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-    </row>
-    <row r="57" spans="2:6" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-    </row>
-    <row r="58" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="E58" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F58" s="46" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-    </row>
-    <row r="61" spans="2:6" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-    </row>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+    </row>
+    <row r="53" spans="2:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+    </row>
+    <row r="57" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="2:6" ht="81" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
+  <mergeCells count="53">
+    <mergeCell ref="F10:F17"/>
     <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="E10:E17"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="D30:D32"/>
@@ -2732,27 +2487,32 @@
     <mergeCell ref="D42:D44"/>
     <mergeCell ref="E42:E45"/>
     <mergeCell ref="F42:F45"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F46:F49"/>
     <mergeCell ref="B50:B53"/>
     <mergeCell ref="C50:C53"/>
     <mergeCell ref="D50:D52"/>
     <mergeCell ref="E50:E53"/>
     <mergeCell ref="F50:F53"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -2765,8 +2525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2783,12 +2543,12 @@
       <c r="A1" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2810,19 +2570,19 @@
     </row>
     <row r="6" spans="1:6" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
